--- a/files/fb.xlsx
+++ b/files/fb.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>plots</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>block</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>IBTH</t>
+          <t>imb</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>IBT</t>
+          <t>imbt</t>
         </is>
       </c>
     </row>
